--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 1back/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/O et R 1 Back/modifcond/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC95F83-4C57-C441-802C-A9E30471F647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDBF04-B94A-B540-8326-551E7FC274A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="1380" windowWidth="19100" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>ordre</t>
   </si>
@@ -58,9 +58,6 @@
     <t>red.png</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>thissound</t>
   </si>
   <si>
@@ -77,8 +74,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,12 +107,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="161" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -401,23 +424,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -427,14 +450,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -451,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -471,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -488,11 +511,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <f>SUM(C:C)</f>
-        <v>120</v>
+        <v>120.24999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -512,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -529,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -546,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -554,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -563,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -580,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -597,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -614,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -642,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -659,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -668,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -685,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -727,19 +750,16 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -747,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -764,16 +784,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -790,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -798,16 +821,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -827,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,16 +855,19 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -852,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -861,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -878,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -886,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -912,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -920,19 +943,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -949,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -986,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1002,8 +1022,11 @@
       <c r="D34">
         <v>0</v>
       </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,16 +1034,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1040,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,16 +1068,19 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1074,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,15 +1105,12 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -1102,16 +1122,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1122,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1134,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,19 +1159,76 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>0.05</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/O et R 1 Back/modifcond/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gau20/Desktop/stage programmation/Alarme sound HDG/alarme sound R&amp;O 1back/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDBF04-B94A-B540-8326-551E7FC274A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5F73BF-4C18-6E4D-8993-CD07C4C6F88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1940" yWindow="1380" windowWidth="19100" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$45</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -413,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,6 +1235,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E7">
     <sortCondition ref="A3:A7"/>
   </sortState>
